--- a/excel_templates/手机卡表.xlsx
+++ b/excel_templates/手机卡表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,90 +466,110 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>JIRA地址</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>创建时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>借用人</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>手机号</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>借用时间</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>借用地点</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>借用原因</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>录入者</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>预计归还日期</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>是否删除</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>丢失时间</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>损坏原因</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>损坏时间</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>上一个借用人</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>软件版本</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>芯片型号</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>寄出时间</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>寄出备注</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>寄出人</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>寄出前借用人</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>寄出前借用时间</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>寄出前预计归还</t>
         </is>
@@ -582,44 +602,48 @@
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>13986903203.0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>2026-02-10 16:54</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
         <is>
           <t>测试 - 用于功能测试</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>用户自助</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>2026-02-11 16:54:53</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
@@ -628,6 +652,10 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -656,44 +684,48 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>13986903203.0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>2026-02-10 16:57</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
         <is>
           <t>测试 - 用于功能测试</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>用户自助</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>2026-02-11 16:57:15</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
@@ -702,6 +734,10 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -731,19 +767,23 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
@@ -752,6 +792,10 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -781,19 +825,23 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
@@ -802,6 +850,10 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
